--- a/data/trans_camb/P2A_senso_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P2A_senso_R-Clase-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>-1.905610666150613</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.06561608890149513</v>
+        <v>0.06561608890149478</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.7387028463994225</v>
@@ -664,7 +664,7 @@
         <v>-1.190330334187863</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.4500388908170765</v>
+        <v>0.4500388908170758</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.042892454298404</v>
+        <v>-1.07503424329982</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.04179065142619</v>
+        <v>-2.184104330799869</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.9370068844563645</v>
+        <v>-0.9852007019251225</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.437756124745165</v>
+        <v>-1.391125721864063</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-4.131016067192312</v>
+        <v>-3.777113288805832</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-2.202058758739677</v>
+        <v>-2.146676359576526</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.6702669794227756</v>
+        <v>-0.7379196043036951</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-2.274499849788867</v>
+        <v>-2.308249012796725</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-0.7801989814221336</v>
+        <v>-0.8128777619062227</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.407326766310408</v>
+        <v>2.532397421563653</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4054537406534279</v>
+        <v>0.4056859076311453</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.199165734505635</v>
+        <v>2.093452213428282</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.946979918222588</v>
+        <v>3.954801491801622</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-0.590364680514028</v>
+        <v>-0.4340617565011509</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>1.7118033855581</v>
+        <v>1.780180886642728</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>2.461487072840901</v>
+        <v>2.29309017780554</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-0.3084689076956765</v>
+        <v>-0.2666127008481783</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>1.613312640090685</v>
+        <v>1.502190981142447</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>-0.8751492435708064</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03013410429960285</v>
+        <v>0.03013410429960269</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.4475631473644812</v>
@@ -769,7 +769,7 @@
         <v>-0.72119390546449</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.2726682635545187</v>
+        <v>0.2726682635545183</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,29 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.6209952251667582</v>
+        <v>-0.6087844647695164</v>
       </c>
       <c r="D8" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.5219914379767044</v>
+        <v>-0.513959857115291</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.5323080783760319</v>
-      </c>
-      <c r="G8" s="6" t="n">
-        <v>-1</v>
-      </c>
+        <v>-0.5249453213211999</v>
+      </c>
+      <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="n">
-        <v>-0.5983835207476969</v>
+        <v>-0.5709419755058615</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.3394153670903947</v>
+        <v>-0.3675575273426364</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.9407748543136538</v>
+        <v>-0.9313082836076249</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.3587786425861933</v>
+        <v>-0.3534474650801819</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +813,29 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>3.885648148439869</v>
+        <v>4.558429905546176</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.849844820128688</v>
+        <v>1.452966284056104</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>3.96923161680559</v>
+        <v>3.371790562305301</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>3.229459655544571</v>
-      </c>
-      <c r="G9" s="6" t="n">
-        <v>0.6259707348008681</v>
-      </c>
+        <v>4.305401513828171</v>
+      </c>
+      <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="n">
-        <v>1.742688310145645</v>
+        <v>1.962318924361794</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>2.422961002723421</v>
+        <v>2.300576304307224</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.186980928618474</v>
+        <v>-0.094671557081317</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.536729627834426</v>
+        <v>1.51742559089438</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +856,7 @@
         <v>-1.035419574267626</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.9057202121181218</v>
+        <v>0.9057202121181208</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.4056948166531039</v>
@@ -889,31 +885,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.80369117300855</v>
+        <v>-3.017725836933454</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.752761991291894</v>
+        <v>-2.92475382618414</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.9546200544911669</v>
+        <v>-1.239491868927742</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.008377443267065</v>
+        <v>-0.9348343680602299</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.6003208330975265</v>
+        <v>-0.7953322196449623</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.07873417571057004</v>
+        <v>-0.0354263351689273</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-1.461871704384585</v>
+        <v>-1.46143916310212</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.247735723112004</v>
+        <v>-1.201873308685598</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-0.1014662432559253</v>
+        <v>-0.1320717894145504</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +920,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2599731483699387</v>
+        <v>0.1391397716417045</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.580418700875977</v>
+        <v>0.5050088060750072</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.358744660176929</v>
+        <v>3.200964371330441</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.151453057551076</v>
+        <v>2.127455764132717</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>2.447511441856762</v>
+        <v>2.208956892860596</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>3.182064249856416</v>
+        <v>3.171720467902351</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.5642547585027438</v>
+        <v>0.6463443916946917</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.9316321545857851</v>
+        <v>0.9529710147106425</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>2.696452926915713</v>
+        <v>2.788625223951162</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +961,7 @@
         <v>-0.5580516687663295</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.488148658156689</v>
+        <v>0.4881486581566885</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.4920940739313476</v>
@@ -983,7 +979,7 @@
         <v>-0.09705575876359307</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.8717811907248345</v>
+        <v>0.8717811907248343</v>
       </c>
     </row>
     <row r="14">
@@ -1000,23 +996,23 @@
         <v>-1</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.4274287352201196</v>
+        <v>-0.4951862713579532</v>
       </c>
       <c r="F14" s="6" t="inlineStr"/>
       <c r="G14" s="6" t="n">
-        <v>-0.6004589446663156</v>
+        <v>-0.7554798849877286</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3253699227721298</v>
+        <v>-0.3081695077877892</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.7555093618768018</v>
+        <v>-0.7927760774580466</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.6651055815821586</v>
+        <v>-0.6407454553402008</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.123096080497345</v>
+        <v>-0.1398376648388036</v>
       </c>
     </row>
     <row r="15">
@@ -1027,27 +1023,29 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.7034962258438023</v>
+        <v>0.4265946649573625</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.240481435853932</v>
+        <v>1.071260550745876</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>4.047721175788559</v>
+        <v>3.4533172054272</v>
       </c>
       <c r="F15" s="6" t="inlineStr"/>
       <c r="G15" s="6" t="n">
-        <v>12.08397064364971</v>
-      </c>
-      <c r="H15" s="6" t="inlineStr"/>
+        <v>8.158586330923264</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>12.87789249164022</v>
+      </c>
       <c r="I15" s="6" t="n">
-        <v>0.9798857576400081</v>
+        <v>0.9181867091792176</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.226385136497967</v>
+        <v>1.25496095730216</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>3.302513279297282</v>
+        <v>3.32218313020901</v>
       </c>
     </row>
     <row r="16">
@@ -1068,7 +1066,7 @@
         <v>0.1912261504779493</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2.162683662962906</v>
+        <v>2.162683662962905</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0.4056963917808736</v>
@@ -1097,31 +1095,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.2571829311279442</v>
+        <v>-0.3279909082926398</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.9363875074689243</v>
+        <v>-1.045977092714668</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.4530715585865547</v>
+        <v>0.4412069048089007</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.740926908829949</v>
+        <v>-2.621342774277565</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-3.26144275068452</v>
+        <v>-3.23199280738056</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-0.8296010715083781</v>
+        <v>-0.5035678154755022</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.4271744882877933</v>
+        <v>-0.2882950019157954</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.158264347051509</v>
+        <v>-1.155104911156462</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.7942291245411957</v>
+        <v>0.7429389813791671</v>
       </c>
     </row>
     <row r="18">
@@ -1132,31 +1130,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.844592951763081</v>
+        <v>2.499019639190026</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.829145037589322</v>
+        <v>1.460543597577023</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.330137341057195</v>
+        <v>4.244044624972783</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.788047838596853</v>
+        <v>3.136080560533031</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>3.152154656207315</v>
+        <v>3.58156712751689</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>8.101861563193577</v>
+        <v>7.711385343330421</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.218966335455927</v>
+        <v>2.243813704571738</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.44338946058012</v>
+        <v>1.285506067100448</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>4.483284445568701</v>
+        <v>4.318992986479604</v>
       </c>
     </row>
     <row r="19">
@@ -1173,7 +1171,7 @@
         <v>0.2051719547450244</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>2.320404576027878</v>
+        <v>2.320404576027877</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.2157859798669685</v>
@@ -1202,27 +1200,29 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.3409712711942639</v>
+        <v>-0.3903912456937661</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.7023004012650021</v>
+        <v>-0.7781388866994229</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.09028042939700305</v>
-      </c>
-      <c r="F20" s="6" t="inlineStr"/>
+        <v>0.09392150715426281</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>-0.7710265274429223</v>
+      </c>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="n">
-        <v>-0.6506091863819351</v>
+        <v>-0.4644263130118086</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.2915566847592279</v>
+        <v>-0.2341738545122019</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.7202858764600742</v>
+        <v>-0.7474947875830998</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.1855704062601018</v>
+        <v>0.2511438992265971</v>
       </c>
     </row>
     <row r="21">
@@ -1233,27 +1233,29 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>7.369362150651316</v>
+        <v>5.634820902983475</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>5.752612211664306</v>
+        <v>4.316510466696243</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>12.41702222980924</v>
-      </c>
-      <c r="F21" s="6" t="inlineStr"/>
+        <v>9.601974937583707</v>
+      </c>
+      <c r="F21" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
       <c r="G21" s="6" t="inlineStr"/>
-      <c r="H21" s="6" t="n">
-        <v>10.99780537801422</v>
-      </c>
+      <c r="H21" s="6" t="inlineStr"/>
       <c r="I21" s="6" t="n">
-        <v>3.886523533340039</v>
+        <v>3.789857573296953</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>2.3054050269779</v>
+        <v>2.005776135761272</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>6.641391914278915</v>
+        <v>6.384777851067734</v>
       </c>
     </row>
     <row r="22">
@@ -1283,7 +1285,7 @@
         <v>-0.3346186548164421</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.7810586389193442</v>
+        <v>0.7810586389193446</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>0.4945342646462226</v>
@@ -1292,7 +1294,7 @@
         <v>-0.6021065638438612</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.7884894775949818</v>
+        <v>0.7884894775949826</v>
       </c>
     </row>
     <row r="23">
@@ -1303,31 +1305,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.9189062351860104</v>
+        <v>-0.9663613144252727</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.714966236635431</v>
+        <v>-1.75081788699317</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.3375833180306508</v>
+        <v>-0.3752798717352214</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.4211933187856213</v>
+        <v>-0.3515623528580816</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.461278323865621</v>
+        <v>-1.543487356832059</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.3785781472092636</v>
+        <v>-0.5048519332800723</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.3267893687594507</v>
+        <v>-0.4511734815882791</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.39400444996685</v>
+        <v>-1.42714373205846</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-0.08583290798371998</v>
+        <v>-0.06533107588457235</v>
       </c>
     </row>
     <row r="24">
@@ -1338,31 +1340,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.369976269673374</v>
+        <v>1.361830639595716</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2552482218592322</v>
+        <v>0.2931359996812118</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.242311698781946</v>
+        <v>2.277377850716188</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.516228607146961</v>
+        <v>2.617323676005729</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.9061810932855182</v>
+        <v>0.6928934439480177</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>2.053663772718768</v>
+        <v>1.872382497341206</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.457603083791343</v>
+        <v>1.400462330894298</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.2136607650146214</v>
+        <v>0.1523583812946938</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>1.672297433470292</v>
+        <v>1.799883787597313</v>
       </c>
     </row>
     <row r="25">
@@ -1388,7 +1390,7 @@
         <v>-0.2267750020770225</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.5293326355650251</v>
+        <v>0.5293326355650253</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.2975535716254163</v>
@@ -1397,7 +1399,7 @@
         <v>-0.3622781501278046</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.4744218490407036</v>
+        <v>0.4744218490407039</v>
       </c>
     </row>
     <row r="26">
@@ -1408,31 +1410,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.4241689977588423</v>
+        <v>-0.4118903972261476</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.7525538484795573</v>
+        <v>-0.7703892800481694</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.1717597433163518</v>
+        <v>-0.2481314483007818</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.3054990896093607</v>
+        <v>-0.2539585981950277</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.7012028043875527</v>
+        <v>-0.7247262020445119</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2114438086783597</v>
+        <v>-0.2551646718476759</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.1751945037979455</v>
+        <v>-0.2382339909936222</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.6633830573885674</v>
+        <v>-0.6655497524463508</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.06575680728340896</v>
+        <v>-0.03987236063246195</v>
       </c>
     </row>
     <row r="27">
@@ -1443,31 +1445,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.147128913077257</v>
+        <v>1.139524703412898</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.2471801753935588</v>
+        <v>0.3566755293442425</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.728398206045679</v>
+        <v>1.70983058044476</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>2.919441479684738</v>
+        <v>3.024590016707243</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.274881989717239</v>
+        <v>1.015321036759087</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>2.384117158648073</v>
+        <v>2.255356615650409</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.142839745602654</v>
+        <v>1.085441191657413</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.2056524889644214</v>
+        <v>0.1411843206974393</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.345955464844378</v>
+        <v>1.403833618737068</v>
       </c>
     </row>
     <row r="28">
@@ -1488,7 +1490,7 @@
         <v>-0.8345389746719902</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.3645629242399979</v>
+        <v>0.3645629242399973</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>0.6213713651010571</v>
@@ -1517,31 +1519,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-3.526569283111953</v>
+        <v>-3.637577420314939</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-3.225411342738213</v>
+        <v>-3.051517963835618</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-2.011599291993012</v>
+        <v>-1.990771578462024</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.8273773581523189</v>
+        <v>-0.812782430189579</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-1.379727675484931</v>
+        <v>-1.425890518115864</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>1.858689416498183</v>
+        <v>1.90942596199592</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-1.403543161428185</v>
+        <v>-1.278730254147502</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-1.420277048590838</v>
+        <v>-1.593546871349229</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.8320835041163682</v>
+        <v>0.8381850721957885</v>
       </c>
     </row>
     <row r="30">
@@ -1552,31 +1554,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.2627156116959811</v>
+        <v>0.3276231403218766</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.8777358820847474</v>
+        <v>0.839812035470946</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2.393215431782596</v>
+        <v>2.358599673924314</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>2.070089975244255</v>
+        <v>2.181787201656532</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>1.172197873185358</v>
+        <v>1.115175821906603</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>4.72872228015965</v>
+        <v>4.802572683981363</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.9236294273508648</v>
+        <v>0.8874265427867699</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.6824125139792256</v>
+        <v>0.6639957714873417</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>3.375160143238447</v>
+        <v>3.267445459206204</v>
       </c>
     </row>
     <row r="31">
@@ -1593,7 +1595,7 @@
         <v>-0.3539171412475824</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.1546064016993232</v>
+        <v>0.1546064016993229</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.4845594669095312</v>
@@ -1622,31 +1624,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.9114347375564841</v>
+        <v>-0.9062118743351472</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.7942561502661355</v>
+        <v>-0.7882303685843267</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.5521368933548019</v>
+        <v>-0.5493705365713298</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.480215570023335</v>
+        <v>-0.4628614805964891</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.6690420832231813</v>
+        <v>-0.7038405540189969</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.7546774235088493</v>
+        <v>0.7096179147920407</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.576773959546608</v>
+        <v>-0.5593080707602853</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.6234037214518114</v>
+        <v>-0.6456731155389934</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.2689343426165093</v>
+        <v>0.31660643574503</v>
       </c>
     </row>
     <row r="33">
@@ -1657,31 +1659,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.4364192233348075</v>
+        <v>0.6472866640632772</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.922339612437433</v>
+        <v>0.7999992526042864</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>2.352572963296809</v>
+        <v>1.828459540398692</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>3.521524810489218</v>
+        <v>3.790603465474196</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>2.147760900179086</v>
+        <v>2.072396993756586</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>7.723000779450515</v>
+        <v>7.248652446119296</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.8605907860887174</v>
+        <v>0.8531163507513857</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.667478396147383</v>
+        <v>0.7037754245220356</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>3.020653270672438</v>
+        <v>3.006218209123704</v>
       </c>
     </row>
     <row r="34">
@@ -1702,7 +1704,7 @@
         <v>-0.1672429547092079</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>0.4486516960901816</v>
+        <v>0.4486516960901814</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>0.02189141576377403</v>
@@ -1711,7 +1713,7 @@
         <v>-1.080227711372414</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>1.485350828821921</v>
+        <v>1.485350828821922</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>0.2307951543669997</v>
@@ -1731,31 +1733,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-0.7725472331405575</v>
+        <v>-0.9310796181873564</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-1.978728527431294</v>
+        <v>-1.835164556018016</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-1.134224830848663</v>
+        <v>-1.123765723220628</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-1.057166279342097</v>
+        <v>-1.068994123565259</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-2.117153812954147</v>
+        <v>-2.046260506013851</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>0.246928478404618</v>
+        <v>0.199231907850103</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-0.7491582072469868</v>
+        <v>-0.6884789974947605</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-1.774030486452845</v>
+        <v>-1.742763747545597</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>0.08304293216053511</v>
+        <v>0.183692063850778</v>
       </c>
     </row>
     <row r="36">
@@ -1766,31 +1768,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>4.328403161560479</v>
+        <v>3.895525029558689</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>0.9979896353233453</v>
+        <v>0.9982223050640183</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>3.09521881782411</v>
+        <v>3.132969604400418</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>1.184946944012419</v>
+        <v>1.246631468706799</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>0.04416865838198585</v>
+        <v>-0.1070620940844351</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>2.823148495096745</v>
+        <v>2.93757901686992</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>1.304342151329713</v>
+        <v>1.292257527478551</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>-0.1234431696996557</v>
+        <v>-0.09584179381509499</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>2.49436881683198</v>
+        <v>2.543166288931198</v>
       </c>
     </row>
     <row r="37">
@@ -1807,7 +1809,7 @@
         <v>-0.202068114669231</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>0.5420748666497007</v>
+        <v>0.5420748666497005</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>0.01081046464873076</v>
@@ -1816,7 +1818,7 @@
         <v>-0.5334403042901965</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.7334990481754969</v>
+        <v>0.7334990481754973</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.1286332811943872</v>
@@ -1839,22 +1841,22 @@
       <c r="D38" s="6" t="inlineStr"/>
       <c r="E38" s="6" t="inlineStr"/>
       <c r="F38" s="6" t="n">
-        <v>-0.4225534837609705</v>
+        <v>-0.4223870284097855</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.7913408130059244</v>
+        <v>-0.7984428819501943</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.07151731410458889</v>
+        <v>0.05538269991211914</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.3528080948993529</v>
+        <v>-0.3279436012137578</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.7604985132768197</v>
+        <v>-0.7553233415830735</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.006249611164540105</v>
+        <v>0.06529469418447156</v>
       </c>
     </row>
     <row r="39">
@@ -1868,22 +1870,22 @@
       <c r="D39" s="6" t="inlineStr"/>
       <c r="E39" s="6" t="inlineStr"/>
       <c r="F39" s="6" t="n">
-        <v>0.8577613620229921</v>
+        <v>0.8354190039310346</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.09440988874482659</v>
+        <v>-0.04104919179428408</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>1.984332585352329</v>
+        <v>2.037298149203625</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>1.038858012226384</v>
+        <v>0.9793548594122067</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>-0.03565337922082162</v>
+        <v>-0.01464952549905618</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>1.774349772562302</v>
+        <v>1.990132827710686</v>
       </c>
     </row>
     <row r="40">
@@ -1933,31 +1935,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-0.5107436992479084</v>
+        <v>-0.5109062986739614</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-1.077562180020506</v>
+        <v>-1.120720879190484</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>0.2988603231508435</v>
+        <v>0.3079502747939123</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-0.2664762504418706</v>
+        <v>-0.2105714726588043</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-1.147302464674535</v>
+        <v>-1.174831970369504</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>0.8869993351952223</v>
+        <v>0.8809039963541974</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-0.1953401686682622</v>
+        <v>-0.1886855132375193</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-0.9598449219877271</v>
+        <v>-0.9340805921062543</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>0.7447795467366082</v>
+        <v>0.761247902409783</v>
       </c>
     </row>
     <row r="42">
@@ -1968,31 +1970,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>0.743057417588377</v>
+        <v>0.7772028407571946</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>0.01839908801384767</v>
+        <v>0.03220971174789386</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1.677722751359368</v>
+        <v>1.750458502048731</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>1.14892620391855</v>
+        <v>1.16599730397662</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>-0.01424596410650655</v>
+        <v>-0.01668069441187448</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>2.202191106807422</v>
+        <v>2.186451505999008</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>0.7397833464122295</v>
+        <v>0.7937380158933879</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>-0.1774898508781166</v>
+        <v>-0.1364106896711188</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>1.725367631669872</v>
+        <v>1.734369060580178</v>
       </c>
     </row>
     <row r="43">
@@ -2038,31 +2040,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.2777717314080101</v>
+        <v>-0.2741783094657333</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.5818271745360396</v>
+        <v>-0.5896455548393127</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.1627252093055248</v>
+        <v>0.1486361121757288</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.1383146548750148</v>
+        <v>-0.1130757304660809</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.5822800727550549</v>
+        <v>-0.5801047787898383</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.427654603045603</v>
+        <v>0.4450792272939995</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.09762202925816604</v>
+        <v>-0.09945395635028775</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.5226166087835827</v>
+        <v>-0.5223415549906362</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.408990080610324</v>
+        <v>0.4080487085391475</v>
       </c>
     </row>
     <row r="45">
@@ -2073,31 +2075,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.5961179742061491</v>
+        <v>0.6227418082054351</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.04707982643098947</v>
+        <v>0.04669980791089288</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>1.302244042241395</v>
+        <v>1.371427539847146</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.8518952378926544</v>
+        <v>0.8523247707243903</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>-0.005006134818014877</v>
+        <v>0.01949349931827133</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>1.644448094704763</v>
+        <v>1.702425697505348</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.533780983329593</v>
+        <v>0.5733024115723052</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>-0.1253026190821795</v>
+        <v>-0.09781768977716086</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>1.257664099656399</v>
+        <v>1.224822000766438</v>
       </c>
     </row>
     <row r="46">
